--- a/заказы/статистика филиалы/2024/04,24/04,04,24 ПОКОМ ЗПФ филиалы/дв 04,04,24 днрсч пок зпф от филиала.xlsx
+++ b/заказы/статистика филиалы/2024/04,24/04,04,24 ПОКОМ ЗПФ филиалы/дв 04,04,24 днрсч пок зпф от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\04,04,24 ПОКОМ ЗПФ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\04,24\04,04,24 ПОКОМ ЗПФ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426532E9-7CC3-4A2B-9029-24F972C076CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF8E875-A537-477A-A48F-19013ABABB54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="122">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>04,04,24 филиал обнулил заказ</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -872,13 +875,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AZ500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomRight" activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1132,7 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1202,7 +1206,7 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1410,7 +1414,9 @@
         <f>AE6*AD6*G6</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="1"/>
+      <c r="AG6" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
@@ -1431,7 +1437,7 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1548,7 +1554,7 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1665,7 +1671,7 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1780,7 +1786,7 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1899,7 +1905,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2118,7 +2124,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="1"/>
+      <c r="AG12" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -2139,7 +2147,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -2252,7 +2260,7 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -2457,7 +2465,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="1"/>
+      <c r="AG15" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
@@ -2562,7 +2572,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="1"/>
+      <c r="AG16" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -2677,7 +2689,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="1"/>
+      <c r="AG17" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -2779,7 +2793,9 @@
       <c r="AD18" s="23"/>
       <c r="AE18" s="25"/>
       <c r="AF18" s="22"/>
-      <c r="AG18" s="1"/>
+      <c r="AG18" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -2800,7 +2816,7 @@
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -3007,7 +3023,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="1"/>
+      <c r="AG20" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
@@ -3028,7 +3046,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -3235,7 +3253,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="1"/>
+      <c r="AG22" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
@@ -3256,7 +3276,7 @@
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>56</v>
       </c>
@@ -3362,7 +3382,7 @@
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>59</v>
       </c>
@@ -3470,7 +3490,7 @@
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
@@ -3678,7 +3698,9 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="1"/>
+      <c r="AG26" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -3699,7 +3721,7 @@
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -3816,7 +3838,7 @@
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -3933,7 +3955,7 @@
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -4050,7 +4072,7 @@
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -4165,7 +4187,7 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -4280,7 +4302,7 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -4468,7 +4490,9 @@
       <c r="AD33" s="23"/>
       <c r="AE33" s="25"/>
       <c r="AF33" s="22"/>
-      <c r="AG33" s="1"/>
+      <c r="AG33" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
@@ -4581,7 +4605,9 @@
         <f t="shared" ref="AF34:AF35" si="28">AE34*AD34*G34</f>
         <v>0</v>
       </c>
-      <c r="AG34" s="1"/>
+      <c r="AG34" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
@@ -4698,7 +4724,9 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AG35" s="1"/>
+      <c r="AG35" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
@@ -4800,7 +4828,9 @@
       <c r="AD36" s="23"/>
       <c r="AE36" s="25"/>
       <c r="AF36" s="22"/>
-      <c r="AG36" s="1"/>
+      <c r="AG36" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
@@ -4902,7 +4932,9 @@
       <c r="AD37" s="23"/>
       <c r="AE37" s="25"/>
       <c r="AF37" s="22"/>
-      <c r="AG37" s="1"/>
+      <c r="AG37" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
@@ -4996,7 +5028,9 @@
       <c r="AD38" s="23"/>
       <c r="AE38" s="25"/>
       <c r="AF38" s="22"/>
-      <c r="AG38" s="1"/>
+      <c r="AG38" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
@@ -5017,7 +5051,7 @@
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -5207,7 +5241,9 @@
       <c r="AD40" s="23"/>
       <c r="AE40" s="25"/>
       <c r="AF40" s="22"/>
-      <c r="AG40" s="1"/>
+      <c r="AG40" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -5309,7 +5345,9 @@
       <c r="AD41" s="23"/>
       <c r="AE41" s="25"/>
       <c r="AF41" s="22"/>
-      <c r="AG41" s="1"/>
+      <c r="AG41" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -5411,7 +5449,9 @@
       <c r="AD42" s="23"/>
       <c r="AE42" s="25"/>
       <c r="AF42" s="22"/>
-      <c r="AG42" s="1"/>
+      <c r="AG42" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -5432,7 +5472,7 @@
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -5547,7 +5587,7 @@
       <c r="AY43" s="1"/>
       <c r="AZ43" s="1"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -5743,7 +5783,9 @@
       <c r="AD45" s="23"/>
       <c r="AE45" s="25"/>
       <c r="AF45" s="22"/>
-      <c r="AG45" s="1"/>
+      <c r="AG45" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -5764,7 +5806,7 @@
       <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -5985,7 +6027,9 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AG47" s="1"/>
+      <c r="AG47" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
@@ -6006,7 +6050,7 @@
       <c r="AY47" s="1"/>
       <c r="AZ47" s="1"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>83</v>
       </c>
@@ -6121,7 +6165,7 @@
       <c r="AY48" s="1"/>
       <c r="AZ48" s="1"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>84</v>
       </c>
@@ -6243,7 +6287,7 @@
       <c r="AY49" s="1"/>
       <c r="AZ49" s="1"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>85</v>
       </c>
@@ -6368,7 +6412,7 @@
       <c r="AY50" s="1"/>
       <c r="AZ50" s="1"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
@@ -6488,7 +6532,7 @@
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -6704,7 +6748,9 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AG53" s="1"/>
+      <c r="AG53" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
@@ -6725,7 +6771,7 @@
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
@@ -6913,7 +6959,9 @@
       <c r="AD55" s="23"/>
       <c r="AE55" s="25"/>
       <c r="AF55" s="22"/>
-      <c r="AG55" s="1"/>
+      <c r="AG55" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
@@ -6934,7 +6982,7 @@
       <c r="AY55" s="1"/>
       <c r="AZ55" s="1"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>91</v>
       </c>
@@ -7038,7 +7086,7 @@
       <c r="AY56" s="1"/>
       <c r="AZ56" s="1"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>92</v>
       </c>
@@ -7231,7 +7279,9 @@
       <c r="AD58" s="23"/>
       <c r="AE58" s="25"/>
       <c r="AF58" s="22"/>
-      <c r="AG58" s="1"/>
+      <c r="AG58" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
@@ -7325,7 +7375,9 @@
       <c r="AD59" s="23"/>
       <c r="AE59" s="25"/>
       <c r="AF59" s="22"/>
-      <c r="AG59" s="1"/>
+      <c r="AG59" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
@@ -7346,7 +7398,7 @@
       <c r="AY59" s="1"/>
       <c r="AZ59" s="1"/>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>95</v>
       </c>
@@ -7450,7 +7502,7 @@
       <c r="AY60" s="1"/>
       <c r="AZ60" s="1"/>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>96</v>
       </c>
@@ -7627,7 +7679,9 @@
       <c r="AD62" s="23"/>
       <c r="AE62" s="25"/>
       <c r="AF62" s="22"/>
-      <c r="AG62" s="1"/>
+      <c r="AG62" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
@@ -7648,7 +7702,7 @@
       <c r="AY62" s="1"/>
       <c r="AZ62" s="1"/>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>98</v>
       </c>
@@ -7748,7 +7802,7 @@
       <c r="AY63" s="1"/>
       <c r="AZ63" s="1"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>99</v>
       </c>
@@ -7848,7 +7902,7 @@
       <c r="AY64" s="1"/>
       <c r="AZ64" s="1"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>100</v>
       </c>
@@ -7948,7 +8002,7 @@
       <c r="AY65" s="1"/>
       <c r="AZ65" s="1"/>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>101</v>
       </c>
@@ -8050,7 +8104,7 @@
       <c r="AY66" s="1"/>
       <c r="AZ66" s="1"/>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>102</v>
       </c>
@@ -8250,7 +8304,9 @@
         <f t="shared" ref="AF68:AF75" si="45">AE68*AD68*G68</f>
         <v>0</v>
       </c>
-      <c r="AG68" s="1"/>
+      <c r="AG68" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH68" s="1"/>
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
@@ -8271,7 +8327,7 @@
       <c r="AY68" s="1"/>
       <c r="AZ68" s="1"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>104</v>
       </c>
@@ -8388,7 +8444,7 @@
       <c r="AY69" s="1"/>
       <c r="AZ69" s="1"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>105</v>
       </c>
@@ -8508,7 +8564,7 @@
       <c r="AY70" s="1"/>
       <c r="AZ70" s="1"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>106</v>
       </c>
@@ -8627,7 +8683,7 @@
       <c r="AY71" s="1"/>
       <c r="AZ71" s="1"/>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>107</v>
       </c>
@@ -8752,7 +8808,7 @@
       <c r="AY72" s="1"/>
       <c r="AZ72" s="1"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>108</v>
       </c>
@@ -8869,7 +8925,7 @@
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>109</v>
       </c>
@@ -9086,7 +9142,9 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AG75" s="1"/>
+      <c r="AG75" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
@@ -9180,7 +9238,9 @@
       <c r="AD76" s="23"/>
       <c r="AE76" s="25"/>
       <c r="AF76" s="22"/>
-      <c r="AG76" s="1"/>
+      <c r="AG76" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
@@ -9201,7 +9261,7 @@
       <c r="AY76" s="1"/>
       <c r="AZ76" s="1"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
@@ -9326,7 +9386,7 @@
       <c r="AY77" s="1"/>
       <c r="AZ77" s="1"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>113</v>
       </c>
@@ -9540,7 +9600,9 @@
         <f t="shared" si="57"/>
         <v>29.700000000000003</v>
       </c>
-      <c r="AG79" s="1"/>
+      <c r="AG79" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AH79" s="1"/>
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
@@ -9561,7 +9623,7 @@
       <c r="AY79" s="1"/>
       <c r="AZ79" s="1"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>115</v>
       </c>
@@ -9684,7 +9746,7 @@
       <c r="AY80" s="1"/>
       <c r="AZ80" s="1"/>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>116</v>
       </c>
@@ -32424,7 +32486,24 @@
       <c r="AZ500" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AF81" xr:uid="{18F8C5CA-B719-48CF-BFC9-D81E48C412B3}"/>
+  <autoFilter ref="A3:AF81" xr:uid="{18F8C5CA-B719-48CF-BFC9-D81E48C412B3}">
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="матрица"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="0"/>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
